--- a/biology/Zoologie/Alecto_à_bec_blanc/Alecto_à_bec_blanc.xlsx
+++ b/biology/Zoologie/Alecto_à_bec_blanc/Alecto_à_bec_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alecto_%C3%A0_bec_blanc</t>
+          <t>Alecto_à_bec_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubalornis albirostris
 L'Alecto à bec blanc (Bubalornis albirostris) est une espèce de passereaux appartenant à la famille des Ploceidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alecto_%C3%A0_bec_blanc</t>
+          <t>Alecto_à_bec_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alecto à bec blanc est gros et trapu, mesurant généralement de 23 à 24 centimètres. L'adulte est principalement noir avec des taches blanches sur le dos et les ailes. Le bec conique est très épais et apparaît d'autant plus qu'il est surmonté d'un bouclier frontal blanc. Le bec est blanc chez les mâles reproducteurs.
 La femelle adulte et le mâle non reproducteur sont semblables, mais le bec est noir. Les jeunes oiseaux sont brun foncé.
